--- a/output/SAFRA_25079578000106.xlsx
+++ b/output/SAFRA_25079578000106.xlsx
@@ -922,10 +922,10 @@
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.4091153199999999</v>
+        <v>0.41159276</v>
       </c>
       <c r="C49">
-        <v>0.001622360375087339</v>
+        <v>0.003383365500265967</v>
       </c>
     </row>
   </sheetData>

--- a/output/SAFRA_25079578000106.xlsx
+++ b/output/SAFRA_25079578000106.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SAFRA KEPLER EQUITY HEDGE FUNDO DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,546 +383,402 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C49"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>42735</v>
       </c>
       <c r="B2">
-        <v>0.0004250199999999982</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>42766</v>
       </c>
       <c r="B3">
-        <v>0.01600491000000015</v>
-      </c>
-      <c r="C3">
         <v>0.01557327104833917</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>42794</v>
       </c>
       <c r="B4">
-        <v>0.03889724000000006</v>
-      </c>
-      <c r="C4">
         <v>0.02253171197765158</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>42825</v>
       </c>
       <c r="B5">
-        <v>0.0458578300000001</v>
-      </c>
-      <c r="C5">
         <v>0.006699979297278835</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>42855</v>
       </c>
       <c r="B6">
-        <v>0.05037943</v>
-      </c>
-      <c r="C6">
         <v>0.004323340964995204</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>42886</v>
       </c>
       <c r="B7">
-        <v>0.06466379999999994</v>
-      </c>
-      <c r="C7">
         <v>0.01359924765472598</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>42916</v>
       </c>
       <c r="B8">
-        <v>0.08353341999999997</v>
-      </c>
-      <c r="C8">
         <v>0.0177235480346003</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>42947</v>
       </c>
       <c r="B9">
-        <v>0.1040608700000001</v>
-      </c>
-      <c r="C9">
         <v>0.01894491634600448</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>42978</v>
       </c>
       <c r="B10">
-        <v>0.12718144</v>
-      </c>
-      <c r="C10">
         <v>0.02094139066807066</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>43008</v>
       </c>
       <c r="B11">
-        <v>0.14135604</v>
-      </c>
-      <c r="C11">
         <v>0.01257526028817502</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>43039</v>
       </c>
       <c r="B12">
-        <v>0.1380570000000001</v>
-      </c>
-      <c r="C12">
         <v>-0.002890456513464423</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>43069</v>
       </c>
       <c r="B13">
-        <v>0.1329962899999999</v>
-      </c>
-      <c r="C13">
         <v>-0.00444679835895756</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>43100</v>
       </c>
       <c r="B14">
-        <v>0.1530502300000001</v>
-      </c>
-      <c r="C14">
         <v>0.01769991674023941</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>43131</v>
       </c>
       <c r="B15">
-        <v>0.1714669600000001</v>
-      </c>
-      <c r="C15">
         <v>0.0159721836229112</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>43159</v>
       </c>
       <c r="B16">
-        <v>0.1796015199999998</v>
-      </c>
-      <c r="C16">
         <v>0.00694390902838582</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>43190</v>
       </c>
       <c r="B17">
-        <v>0.1918544900000001</v>
-      </c>
-      <c r="C17">
         <v>0.01038738064698341</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>43220</v>
       </c>
       <c r="B18">
-        <v>0.19957651</v>
-      </c>
-      <c r="C18">
         <v>0.006478995602894333</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>43251</v>
       </c>
       <c r="B19">
-        <v>0.1649266</v>
-      </c>
-      <c r="C19">
         <v>-0.02888511879913347</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>43281</v>
       </c>
       <c r="B20">
-        <v>0.1591693600000001</v>
-      </c>
-      <c r="C20">
         <v>-0.004942148286424142</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>43312</v>
       </c>
       <c r="B21">
-        <v>0.1767771500000002</v>
-      </c>
-      <c r="C21">
         <v>0.01519000640251567</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>43343</v>
       </c>
       <c r="B22">
-        <v>0.1625195499999998</v>
-      </c>
-      <c r="C22">
         <v>-0.01211580289437153</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>43373</v>
       </c>
       <c r="B23">
-        <v>0.17753318</v>
-      </c>
-      <c r="C23">
         <v>0.01291473334792537</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>43404</v>
       </c>
       <c r="B24">
-        <v>0.2106386500000001</v>
-      </c>
-      <c r="C24">
         <v>0.02811425661907907</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>43434</v>
       </c>
       <c r="B25">
-        <v>0.2246910200000001</v>
-      </c>
-      <c r="C25">
         <v>0.011607402423506</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>43465</v>
       </c>
       <c r="B26">
-        <v>0.2595181799999999</v>
-      </c>
-      <c r="C26">
         <v>0.02843750744575546</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>43496</v>
       </c>
       <c r="B27">
-        <v>0.2489916299999999</v>
-      </c>
-      <c r="C27">
         <v>-0.008357600681873412</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>43524</v>
       </c>
       <c r="B28">
-        <v>0.26285234</v>
-      </c>
-      <c r="C28">
         <v>0.01109752032525635</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>43555</v>
       </c>
       <c r="B29">
-        <v>0.2648581999999999</v>
-      </c>
-      <c r="C29">
         <v>0.001588356719519401</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>43585</v>
       </c>
       <c r="B30">
-        <v>0.26288004</v>
-      </c>
-      <c r="C30">
         <v>-0.001563938155280886</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>43616</v>
       </c>
       <c r="B31">
-        <v>0.26275396</v>
-      </c>
-      <c r="C31">
         <v>-9.983529393653434e-05</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>43646</v>
       </c>
       <c r="B32">
-        <v>0.27192572</v>
-      </c>
-      <c r="C32">
         <v>0.007263299336634166</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>43677</v>
       </c>
       <c r="B33">
-        <v>0.29310262</v>
-      </c>
-      <c r="C33">
         <v>0.01664947855602761</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>43708</v>
       </c>
       <c r="B34">
-        <v>0.3054603599999999</v>
-      </c>
-      <c r="C34">
         <v>0.009556658388024886</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>43738</v>
       </c>
       <c r="B35">
-        <v>0.3170404199999999</v>
-      </c>
-      <c r="C35">
         <v>0.008870479989143476</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>43769</v>
       </c>
       <c r="B36">
-        <v>0.3383518799999998</v>
-      </c>
-      <c r="C36">
         <v>0.01618132570297259</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>43799</v>
       </c>
       <c r="B37">
-        <v>0.33621473</v>
-      </c>
-      <c r="C37">
         <v>-0.001596852092440648</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>43830</v>
       </c>
       <c r="B38">
-        <v>0.35593345</v>
-      </c>
-      <c r="C38">
         <v>0.01475714909983061</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>43861</v>
       </c>
       <c r="B39">
-        <v>0.37033019</v>
-      </c>
-      <c r="C39">
         <v>0.01061758598845697</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>43890</v>
       </c>
       <c r="B40">
-        <v>0.3563328799999999</v>
-      </c>
-      <c r="C40">
         <v>-0.01021455274221184</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>43921</v>
       </c>
       <c r="B41">
-        <v>0.3442580000000002</v>
-      </c>
-      <c r="C41">
         <v>-0.00890259329258436</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>43951</v>
       </c>
       <c r="B42">
-        <v>0.3442086699999998</v>
-      </c>
-      <c r="C42">
         <v>-3.669682456819423e-05</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>43982</v>
       </c>
       <c r="B43">
-        <v>0.3676759200000002</v>
-      </c>
-      <c r="C43">
         <v>0.01745804094538417</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>44012</v>
       </c>
       <c r="B44">
-        <v>0.37632227</v>
-      </c>
-      <c r="C44">
         <v>0.006321928955216105</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>44043</v>
       </c>
       <c r="B45">
-        <v>0.3947164799999998</v>
-      </c>
-      <c r="C45">
         <v>0.01336475504388934</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>44074</v>
       </c>
       <c r="B46">
-        <v>0.40186655</v>
-      </c>
-      <c r="C46">
         <v>0.005126540126635826</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>44104</v>
       </c>
       <c r="B47">
-        <v>0.4040980700000001</v>
-      </c>
-      <c r="C47">
         <v>0.001591820562378166</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>44135</v>
       </c>
       <c r="B48">
-        <v>0.40683293</v>
-      </c>
-      <c r="C48">
         <v>0.001947769930343846</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>44165</v>
       </c>
       <c r="B49">
-        <v>0.41159276</v>
-      </c>
-      <c r="C49">
-        <v>0.003383365500265967</v>
+        <v>-0.0005893237088216985</v>
       </c>
     </row>
   </sheetData>
